--- a/Input_space_ranges2.xlsx
+++ b/Input_space_ranges2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentmdh-my.sharepoint.com/personal/lae18001_student_mdh_se/Documents/Exjobb_2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="214" documentId="8_{DB4C6B2D-078D-4FAF-9CBF-1F10CE6B4C80}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{30A92797-22FE-48CE-980D-AB221DD0326A}"/>
+  <xr:revisionPtr revIDLastSave="327" documentId="8_{DB4C6B2D-078D-4FAF-9CBF-1F10CE6B4C80}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{2ACE1DA5-A11E-48AD-953E-04D26C269666}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="12375" yWindow="2535" windowWidth="14430" windowHeight="8955" xr2:uid="{BF137E14-475C-433E-80F6-E0444A2FC1C0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{BF137E14-475C-433E-80F6-E0444A2FC1C0}"/>
   </bookViews>
   <sheets>
     <sheet name="FB_1" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="165">
   <si>
     <t>FB Name</t>
   </si>
@@ -90,12 +90,6 @@
     <t>Several blocks in the FB only proceeds if the input variables are True, therefore base choice is set to True to enable more test cases to invoke more parts of the function.</t>
   </si>
   <si>
-    <t>active</t>
-  </si>
-  <si>
-    <t>Input variable "Active" must be True to invoke the following function blocks, therefore we set the base choice to 1 for this variable</t>
-  </si>
-  <si>
     <t>remaining input variables</t>
   </si>
   <si>
@@ -132,9 +126,6 @@
     <t>-100,5;-100,0;-99,5;0,0;1,0;59,5;60,0;60,5</t>
   </si>
   <si>
-    <t>TopMarkerUsed</t>
-  </si>
-  <si>
     <t>Base choice from comments in code.</t>
   </si>
   <si>
@@ -153,66 +144,12 @@
     <t>-100,5;-100,0;-99,5;0,0;1,0</t>
   </si>
   <si>
-    <t>LMCO_Trolley</t>
-  </si>
-  <si>
     <t>-1250,7;-0,5;0,0;0,5;1972,9</t>
   </si>
   <si>
     <t xml:space="preserve">Base choice from comments in code. Values are multiplied and divided with each other. Values around 0 (base choice) are tested. positive and negative values for testing are randomized. </t>
   </si>
   <si>
-    <t>LMCO_Gantry</t>
-  </si>
-  <si>
-    <t>LMCO_Hoist</t>
-  </si>
-  <si>
-    <t>HMCO_Trolley</t>
-  </si>
-  <si>
-    <t>HMCO_Gantry</t>
-  </si>
-  <si>
-    <t>HMCO_Hoist</t>
-  </si>
-  <si>
-    <t>ALCO_Trolley</t>
-  </si>
-  <si>
-    <t>ALCO_Gantry</t>
-  </si>
-  <si>
-    <t>ALCO_Hoist</t>
-  </si>
-  <si>
-    <t>AHCO_Trolley</t>
-  </si>
-  <si>
-    <t>AHCO_Gantry</t>
-  </si>
-  <si>
-    <t>AHCO_Hoist</t>
-  </si>
-  <si>
-    <t>A2LCO_Trolley</t>
-  </si>
-  <si>
-    <t>A2LCO_Gantry</t>
-  </si>
-  <si>
-    <t>A2LCO_Hoist</t>
-  </si>
-  <si>
-    <t>A2HCO_Trolley</t>
-  </si>
-  <si>
-    <t>A2HCO_Gantry</t>
-  </si>
-  <si>
-    <t>A2HCO_Hoist</t>
-  </si>
-  <si>
     <t>Sets default values in code that gets enumerated. With unit testing, no enumeration will occur, so it is logical to set then to default at start.</t>
   </si>
   <si>
@@ -231,48 +168,18 @@
     <t>Enum that can take values 0-3. No indication of good base choice value in code.</t>
   </si>
   <si>
-    <t xml:space="preserve">in_topMarkerUsed </t>
-  </si>
-  <si>
     <t>No indication in code regarding good base choice value.</t>
   </si>
   <si>
-    <t xml:space="preserve">in_gold </t>
-  </si>
-  <si>
-    <t xml:space="preserve">in_silver </t>
-  </si>
-  <si>
-    <t xml:space="preserve">in_probLimit </t>
-  </si>
-  <si>
     <t>-5224,1;-0,5;0,0;0,5;11375,9</t>
   </si>
   <si>
-    <t>in_probLimit s compared with t_score1, t_score2, t_score1s, t_score2s. These should have the same range. No indication in code regarding good values for base choice or ranges. Testing values around boundry 0 as well as something high and something low.</t>
-  </si>
-  <si>
     <t>-0,8_-0,6;-0,1_0,1;1,5_1,7</t>
   </si>
   <si>
     <t xml:space="preserve">Base choice from already set value in code (Rounded up to a 10-decimal value to make it acceptable with SEAFOX). If-statement in code that is True for values [-0.7,0.7], allows for testing of values within this range. </t>
   </si>
   <si>
-    <t>in_tandemMode</t>
-  </si>
-  <si>
-    <t>(* variables for t_gold *)</t>
-  </si>
-  <si>
-    <t>t_score1</t>
-  </si>
-  <si>
-    <t>t_score2</t>
-  </si>
-  <si>
-    <t>t_index1</t>
-  </si>
-  <si>
     <t>-32768 - 32767</t>
   </si>
   <si>
@@ -282,12 +189,6 @@
     <t>Value does not seem to be used in source code. Setting range around 0, a positive and a negative value.</t>
   </si>
   <si>
-    <t>t_index2</t>
-  </si>
-  <si>
-    <t>t_index3</t>
-  </si>
-  <si>
     <t>tX1_1</t>
   </si>
   <si>
@@ -348,24 +249,6 @@
     <t>tY3_2</t>
   </si>
   <si>
-    <t>(* variables for t_silver *)</t>
-  </si>
-  <si>
-    <t>t_score1s</t>
-  </si>
-  <si>
-    <t>t_score2s</t>
-  </si>
-  <si>
-    <t>t_index1s</t>
-  </si>
-  <si>
-    <t>t_index2s</t>
-  </si>
-  <si>
-    <t>t_index3s</t>
-  </si>
-  <si>
     <t>tX1_1s</t>
   </si>
   <si>
@@ -414,69 +297,24 @@
     <t>Does not seem to be used in source code. Using same range as for tX3_1s and tY3_1s.</t>
   </si>
   <si>
-    <t>f_X</t>
-  </si>
-  <si>
     <t>-56_-54;0;124_126</t>
   </si>
   <si>
-    <t>Compared GE and LE than constants -55 and 125. -55 =&lt; f_X =&lt; 125. Testing around those boundries and 0. Base choice is a value that allows for GE or LE to be true.</t>
-  </si>
-  <si>
-    <t>f_Module_Error</t>
-  </si>
-  <si>
     <t>Base choice allows for block to be True, which willl allow the program to invoke more parts of the code.</t>
   </si>
   <si>
-    <t>f_Channel_Error</t>
-  </si>
-  <si>
     <t>Base choice set to 0 to enable for both OR-blocks on that level to be false at the same time.</t>
   </si>
   <si>
-    <t>tx_X_Logic_Trip</t>
-  </si>
-  <si>
-    <t>HVAC_ACK</t>
-  </si>
-  <si>
     <t>No indication of best choice for base choice. Choose 1.</t>
   </si>
   <si>
-    <t>HVAC_RQ</t>
-  </si>
-  <si>
-    <t>HVAC_IN</t>
-  </si>
-  <si>
-    <t>HVAC_BYPASS</t>
-  </si>
-  <si>
-    <t>PV_OUT</t>
-  </si>
-  <si>
     <t>-23041;-1_1;24601</t>
   </si>
   <si>
-    <t>PV_OUT must be GE than TSP to invoke next block. PV_OUT and TSP should have the same range and base choice for PV_Out should be larger than PV. No indication of range, so we set values around 0, a larger negative, and a larger positive value</t>
-  </si>
-  <si>
-    <t>TSP</t>
-  </si>
-  <si>
-    <t>TRIP_LOGIC</t>
-  </si>
-  <si>
     <t>Must be true to invoke block, therefore, base choice is set to 1.</t>
   </si>
   <si>
-    <t>K_DELAY</t>
-  </si>
-  <si>
-    <t>K_DELAY and variable ET must be equal and IN True for block TON_0 to be True. ET will always be 0 in the test execution. That means that any other value except 0 for DiscrepancyTime will not change the output of the function block. Input range is therefore set to test 0 and another value, which we chosed according to boundry values, that is 1 and max value for TIME. Base choice value is set to 0 to enable K_DELAY and ET to be equal in several test cases.</t>
-  </si>
-  <si>
     <t>FB_2</t>
   </si>
   <si>
@@ -495,36 +333,6 @@
     <t>FB_6</t>
   </si>
   <si>
-    <t>ASLM2_Distance</t>
-  </si>
-  <si>
-    <t>ASLM1_Distance</t>
-  </si>
-  <si>
-    <t>A2S_SwitchHeight</t>
-  </si>
-  <si>
-    <t>A2S_TopMarkerUsed</t>
-  </si>
-  <si>
-    <t>A1S_SwitchHeight</t>
-  </si>
-  <si>
-    <t>A1S_TopMarkerUsed</t>
-  </si>
-  <si>
-    <t>Low_M_Distance</t>
-  </si>
-  <si>
-    <t>in_CoordY_Gantry</t>
-  </si>
-  <si>
-    <t>in_Hoist_Position</t>
-  </si>
-  <si>
-    <t>// Below is struct in_M_Param</t>
-  </si>
-  <si>
     <t>FB_7</t>
   </si>
   <si>
@@ -537,37 +345,193 @@
     <t>Input variables</t>
   </si>
   <si>
-    <t>in_NoSet1</t>
-  </si>
-  <si>
-    <t>in_NoSet2</t>
-  </si>
-  <si>
-    <t>Discr_Time</t>
-  </si>
-  <si>
-    <t>Discr_Time and variable ET must be equal and IN True for block TON_Descr to be True. ET will always be 0 in the test execution. That means that any other value except 0 for Discr_Time will not change the output of the function block. Input range is therefore set to test 0 and another value, which we chosed according to boundry values, that is 1 and max value for TIME. Base choice value is set to 0 to enable Discr_Time and ET to be equal in several test cases to enable more blocks to be invoked.</t>
-  </si>
-  <si>
-    <t>Function compares the two WORD inputs to be equal and not 0. Same range for both input variables to enable equal value. Base choce value not 0 because function checks that in_NoSet1 &lt;&gt; 0.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">in_resetVar </t>
-  </si>
-  <si>
-    <t xml:space="preserve">in_cType </t>
-  </si>
-  <si>
-    <t xml:space="preserve">in_cLocation </t>
-  </si>
-  <si>
-    <t>in_lowMM_Angle_tc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This varible is comared with values for A1S_SwitchHeight and A2S_SwitchHeight. Setting input range to be equal to those two variables. </t>
-  </si>
-  <si>
     <t>: struct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in_var1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">in_var2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">in_var3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">in_var4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">in_var5 </t>
+  </si>
+  <si>
+    <t>in_var6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in_var7 </t>
+  </si>
+  <si>
+    <t>in_var8</t>
+  </si>
+  <si>
+    <t>in_var5.1</t>
+  </si>
+  <si>
+    <t>(* variables for struct  in_var5: *)</t>
+  </si>
+  <si>
+    <t>in_var5.2</t>
+  </si>
+  <si>
+    <t>in_var9</t>
+  </si>
+  <si>
+    <t>(* variables for struct  in_var6 *)</t>
+  </si>
+  <si>
+    <t>in_var6.1</t>
+  </si>
+  <si>
+    <t>in_var6.2</t>
+  </si>
+  <si>
+    <t>in_var7 is compared with in_var5.1, in_var5.2, in_var5.1s, in_var5.2s. These should have the same range. No indication in code regarding good values for base choice or ranges. Testing values around boundry 0 as well as something high and something low.</t>
+  </si>
+  <si>
+    <t>in_var7 is compared with in_var5.1, in_var5.2, in_var6.1, in_var6.2. These should have the same range. No indication in code regarding good values for base choice or ranges. Testing values around boundry 0 as well as something high and something low.</t>
+  </si>
+  <si>
+    <t>in_var1</t>
+  </si>
+  <si>
+    <t>Function compares the two WORD inputs to be equal and not 0. Same range for both input variables to enable equal value. Base choce value not 0 because function checks that in_var1 &lt;&gt; 0.</t>
+  </si>
+  <si>
+    <t>in_var2</t>
+  </si>
+  <si>
+    <t>D_Time</t>
+  </si>
+  <si>
+    <t>D_Time and variable ET must be equal and IN True for block TON_D to be True. ET will always be 0 in the test execution. That means that any other value except 0 for D_Time will not change the output of the function block. Input range is therefore set to test 0 and another value, which we chosed according to boundry values, that is 1 and max value for TIME. Base choice value is set to 0 to enable D_Time and ET to be equal in several test cases to enable more blocks to be invoked.</t>
+  </si>
+  <si>
+    <t>Input variable "in_var1" must be True to invoke the following function blocks, therefore we set the base choice to 1 for this variable</t>
+  </si>
+  <si>
+    <t>// Below is variables for struct in_var3:</t>
+  </si>
+  <si>
+    <t>in_var3</t>
+  </si>
+  <si>
+    <t>in_var3.1</t>
+  </si>
+  <si>
+    <t>in_var3.2</t>
+  </si>
+  <si>
+    <t>in_var3.3</t>
+  </si>
+  <si>
+    <t>in_var3.4</t>
+  </si>
+  <si>
+    <t>in_var3.5</t>
+  </si>
+  <si>
+    <t>in_var3.6</t>
+  </si>
+  <si>
+    <t>in_var3.7</t>
+  </si>
+  <si>
+    <t>in_var3.8</t>
+  </si>
+  <si>
+    <t>in_var3.9</t>
+  </si>
+  <si>
+    <t>in_var3.10</t>
+  </si>
+  <si>
+    <t>in_var3.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This varible is compared with values for in_var3.3 and in_var3.6. Setting input range to be equal to those two variables. </t>
+  </si>
+  <si>
+    <t>in_var3.12</t>
+  </si>
+  <si>
+    <t>in_var3.13</t>
+  </si>
+  <si>
+    <t>in_var3.14</t>
+  </si>
+  <si>
+    <t>in_var3.15</t>
+  </si>
+  <si>
+    <t>in_var3.16</t>
+  </si>
+  <si>
+    <t>in_var3.17</t>
+  </si>
+  <si>
+    <t>in_var3.18</t>
+  </si>
+  <si>
+    <t>in_var3.19</t>
+  </si>
+  <si>
+    <t>in_var3.20</t>
+  </si>
+  <si>
+    <t>in_var3.21</t>
+  </si>
+  <si>
+    <t>in_var3.22</t>
+  </si>
+  <si>
+    <t>in_var3.23</t>
+  </si>
+  <si>
+    <t>in_var3.24</t>
+  </si>
+  <si>
+    <t>in_var3.25</t>
+  </si>
+  <si>
+    <t>in_var3.26</t>
+  </si>
+  <si>
+    <t>Compared GE and LE than constants -55 and 125. -55 =&lt; in_var1 =&lt; 125. Testing around those boundries and 0. Base choice is a value that allows for GE or LE to be true.</t>
+  </si>
+  <si>
+    <t>in_var4</t>
+  </si>
+  <si>
+    <t>in_var1 must be GE than in_var2 to invoke next block. in_var1 and in_var2 should have the same range and base choice for in_var1 should be larger than PV. No indication of range, so we set values around 0, a larger negative, and a larger positive value</t>
+  </si>
+  <si>
+    <t>in_var4 and variable ET must be equal and IN True for block TON_D to be True. ET will always be 0 in the test execution. That means that any other value except 0 for in_var4 will not change the output of the function block. Input range is therefore set to test 0 and another value, which we chosed according to boundry values, that is 1 and max value for TIME (4294967295). Base choice value is set to 0 to enable in_var4 and ET to be equal in several test cases.</t>
+  </si>
+  <si>
+    <t>in_var5.3</t>
+  </si>
+  <si>
+    <t>in_var6.3</t>
+  </si>
+  <si>
+    <t>in_var5.4</t>
+  </si>
+  <si>
+    <t>in_var6.4</t>
+  </si>
+  <si>
+    <t>in_var5.5</t>
+  </si>
+  <si>
+    <t>in_var6.5</t>
   </si>
 </sst>
 </file>
@@ -1013,12 +977,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1105,6 +1063,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1423,8 +1387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6572CC73-0448-4DF0-836E-89835A436FEB}">
   <dimension ref="A1:I106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1445,7 +1409,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>165</v>
+        <v>101</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>2</v>
@@ -1465,16 +1429,16 @@
       <c r="H1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="70" t="s">
+      <c r="I1" s="68" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
-        <v>150</v>
+        <v>96</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>171</v>
+        <v>103</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>13</v>
@@ -1495,61 +1459,61 @@
         <v>170</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="22" t="s">
-        <v>172</v>
+        <v>104</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="D3" s="32"/>
       <c r="E3" s="5" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="F3" s="22">
         <v>4</v>
       </c>
       <c r="G3" s="5"/>
       <c r="I3" s="12" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="22" t="s">
-        <v>173</v>
+        <v>105</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="D4" s="32"/>
       <c r="E4" s="5" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="F4" s="22">
         <v>0</v>
       </c>
       <c r="G4" s="5"/>
       <c r="I4" s="12" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="22" t="s">
-        <v>64</v>
+        <v>106</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="85" t="s">
+      <c r="D5" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="83" t="s">
+      <c r="E5" s="81" t="s">
         <v>15</v>
       </c>
       <c r="F5" s="45">
@@ -1557,16 +1521,16 @@
       </c>
       <c r="G5" s="5"/>
       <c r="I5" s="12" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="22" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>176</v>
+        <v>102</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="45"/>
@@ -1576,10 +1540,10 @@
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="22" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>176</v>
+        <v>102</v>
       </c>
       <c r="E7" s="5"/>
       <c r="G7" s="5"/>
@@ -1588,60 +1552,60 @@
     <row r="8" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="22" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="56" t="s">
-        <v>69</v>
-      </c>
-      <c r="F8" s="86">
+        <v>25</v>
+      </c>
+      <c r="E8" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="84">
         <v>0</v>
       </c>
       <c r="G8" s="5"/>
       <c r="I8" s="12" t="s">
-        <v>70</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="45" t="s">
-        <v>174</v>
+        <v>110</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D9" s="45" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="F9" s="87">
+        <v>45</v>
+      </c>
+      <c r="F9" s="85">
         <v>1.6</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="45"/>
-      <c r="I9" s="84" t="s">
-        <v>72</v>
+      <c r="I9" s="82" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="22" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="85" t="s">
+      <c r="D10" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="83" t="s">
+      <c r="E10" s="81" t="s">
         <v>15</v>
       </c>
       <c r="F10" s="22">
@@ -1651,800 +1615,800 @@
       <c r="I10" s="12"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="58"/>
+      <c r="A11" s="56"/>
       <c r="B11" s="26"/>
-      <c r="C11" s="58"/>
+      <c r="C11" s="56"/>
       <c r="D11" s="26"/>
-      <c r="E11" s="58"/>
+      <c r="E11" s="56"/>
       <c r="F11" s="26"/>
-      <c r="G11" s="58"/>
+      <c r="G11" s="56"/>
       <c r="H11" s="26"/>
       <c r="I11" s="43"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="59"/>
+      <c r="A12" s="57"/>
       <c r="B12" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="C12" s="59"/>
+        <v>112</v>
+      </c>
+      <c r="C12" s="57"/>
       <c r="D12" s="25"/>
-      <c r="E12" s="60"/>
+      <c r="E12" s="58"/>
       <c r="F12" s="25"/>
-      <c r="G12" s="59"/>
+      <c r="G12" s="57"/>
       <c r="H12" s="25"/>
       <c r="I12" s="51"/>
     </row>
     <row r="13" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="22" t="s">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="56" t="s">
-        <v>69</v>
-      </c>
-      <c r="F13" s="81">
+        <v>25</v>
+      </c>
+      <c r="E13" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="79">
         <v>0</v>
       </c>
       <c r="G13" s="5"/>
       <c r="I13" s="12" t="s">
-        <v>70</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="22" t="s">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="56" t="s">
-        <v>69</v>
-      </c>
-      <c r="F14" s="88">
+        <v>25</v>
+      </c>
+      <c r="E14" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="86">
         <v>0</v>
       </c>
       <c r="G14" s="5"/>
       <c r="I14" s="12" t="s">
-        <v>70</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="22" t="s">
-        <v>77</v>
+        <v>159</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="D15" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="E15" s="72" t="s">
-        <v>79</v>
+        <v>47</v>
+      </c>
+      <c r="E15" s="70" t="s">
+        <v>48</v>
       </c>
       <c r="F15" s="22">
         <v>0</v>
       </c>
       <c r="G15" s="5"/>
       <c r="I15" s="12" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="22" t="s">
-        <v>81</v>
+        <v>161</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="E16" s="72" t="s">
-        <v>79</v>
+        <v>47</v>
+      </c>
+      <c r="E16" s="70" t="s">
+        <v>48</v>
       </c>
       <c r="F16" s="22">
         <v>0</v>
       </c>
       <c r="G16" s="5"/>
       <c r="I16" s="12" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="22" t="s">
-        <v>82</v>
+        <v>163</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="E17" s="72" t="s">
-        <v>79</v>
+        <v>47</v>
+      </c>
+      <c r="E17" s="70" t="s">
+        <v>48</v>
       </c>
       <c r="F17" s="22">
         <v>0</v>
       </c>
       <c r="G17" s="5"/>
       <c r="I17" s="12" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="22" t="s">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="56" t="s">
-        <v>84</v>
-      </c>
-      <c r="F18" s="78">
+        <v>25</v>
+      </c>
+      <c r="E18" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="76">
         <v>-9411.6</v>
       </c>
       <c r="G18" s="5"/>
       <c r="I18" s="12" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="22" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="56" t="s">
-        <v>84</v>
-      </c>
-      <c r="F19" s="89">
+        <v>25</v>
+      </c>
+      <c r="E19" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="87">
         <v>-9411.6</v>
       </c>
       <c r="G19" s="5"/>
       <c r="I19" s="12" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="22" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" s="56" t="s">
-        <v>84</v>
-      </c>
-      <c r="F20" s="89">
+        <v>25</v>
+      </c>
+      <c r="E20" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" s="87">
         <v>-9411.6</v>
       </c>
       <c r="G20" s="5"/>
       <c r="I20" s="12" t="s">
-        <v>89</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="22" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21" s="56" t="s">
-        <v>84</v>
-      </c>
-      <c r="F21" s="89">
+        <v>25</v>
+      </c>
+      <c r="E21" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" s="87">
         <v>-9411.6</v>
       </c>
       <c r="G21" s="5"/>
       <c r="I21" s="12" t="s">
-        <v>89</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="22" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22" s="56" t="s">
-        <v>92</v>
-      </c>
-      <c r="F22" s="89">
+        <v>25</v>
+      </c>
+      <c r="E22" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22" s="87">
         <v>-17221.2</v>
       </c>
       <c r="G22" s="5"/>
       <c r="I22" s="12" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="22" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23" s="56" t="s">
-        <v>92</v>
-      </c>
-      <c r="F23" s="89">
+        <v>25</v>
+      </c>
+      <c r="E23" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" s="87">
         <v>-17221.2</v>
       </c>
       <c r="G23" s="5"/>
       <c r="I23" s="12" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="22" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E24" s="56" t="s">
-        <v>92</v>
-      </c>
-      <c r="F24" s="89">
+        <v>25</v>
+      </c>
+      <c r="E24" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24" s="87">
         <v>-17221.2</v>
       </c>
       <c r="G24" s="5"/>
       <c r="I24" s="12" t="s">
-        <v>95</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="22" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25" s="56" t="s">
-        <v>92</v>
-      </c>
-      <c r="F25" s="89">
+        <v>25</v>
+      </c>
+      <c r="E25" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="F25" s="87">
         <v>-17221.2</v>
       </c>
       <c r="G25" s="5"/>
       <c r="I25" s="12" t="s">
-        <v>95</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="22" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E26" s="56" t="s">
-        <v>84</v>
-      </c>
-      <c r="F26" s="89">
+        <v>25</v>
+      </c>
+      <c r="E26" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="F26" s="87">
         <v>-9411.6</v>
       </c>
       <c r="G26" s="5"/>
       <c r="I26" s="12" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="22" t="s">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E27" s="56" t="s">
-        <v>84</v>
-      </c>
-      <c r="F27" s="89">
+        <v>25</v>
+      </c>
+      <c r="E27" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="F27" s="87">
         <v>-9411.6</v>
       </c>
       <c r="G27" s="5"/>
       <c r="I27" s="12" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" s="22" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E28" s="56" t="s">
-        <v>84</v>
-      </c>
-      <c r="F28" s="89">
+        <v>25</v>
+      </c>
+      <c r="E28" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="F28" s="87">
         <v>-9411.6</v>
       </c>
       <c r="G28" s="5"/>
       <c r="I28" s="12" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="22" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E29" s="56" t="s">
-        <v>84</v>
-      </c>
-      <c r="F29" s="89">
+        <v>25</v>
+      </c>
+      <c r="E29" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="F29" s="87">
         <v>-9411.6</v>
       </c>
       <c r="G29" s="5"/>
       <c r="I29" s="12" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="58"/>
+      <c r="A30" s="56"/>
       <c r="B30" s="26"/>
-      <c r="C30" s="58"/>
+      <c r="C30" s="56"/>
       <c r="D30" s="26"/>
-      <c r="E30" s="58"/>
+      <c r="E30" s="56"/>
       <c r="F30" s="26"/>
-      <c r="G30" s="58"/>
+      <c r="G30" s="56"/>
       <c r="H30" s="26"/>
       <c r="I30" s="43"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="59"/>
+      <c r="A31" s="57"/>
       <c r="B31" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="C31" s="59"/>
+        <v>115</v>
+      </c>
+      <c r="C31" s="57"/>
       <c r="D31" s="25"/>
-      <c r="E31" s="59"/>
+      <c r="E31" s="57"/>
       <c r="F31" s="25"/>
-      <c r="G31" s="59"/>
+      <c r="G31" s="57"/>
       <c r="H31" s="25"/>
       <c r="I31" s="51"/>
     </row>
     <row r="32" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
       <c r="B32" s="22" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E32" s="56" t="s">
-        <v>69</v>
-      </c>
-      <c r="F32" s="86">
+        <v>25</v>
+      </c>
+      <c r="E32" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" s="84">
         <v>0</v>
       </c>
       <c r="G32" s="5"/>
       <c r="I32" s="12" t="s">
-        <v>70</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
       <c r="B33" s="22" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D33" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E33" s="56" t="s">
-        <v>69</v>
-      </c>
-      <c r="F33" s="86">
+        <v>25</v>
+      </c>
+      <c r="E33" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" s="84">
         <v>0</v>
       </c>
       <c r="G33" s="5"/>
       <c r="I33" s="12" t="s">
-        <v>70</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34" s="22" t="s">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="D34" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="E34" s="72" t="s">
-        <v>79</v>
+        <v>47</v>
+      </c>
+      <c r="E34" s="70" t="s">
+        <v>48</v>
       </c>
       <c r="F34" s="22">
         <v>0</v>
       </c>
       <c r="G34" s="5"/>
       <c r="I34" s="12" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="22" t="s">
-        <v>107</v>
+        <v>162</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="D35" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="E35" s="72" t="s">
-        <v>79</v>
+        <v>47</v>
+      </c>
+      <c r="E35" s="70" t="s">
+        <v>48</v>
       </c>
       <c r="F35" s="22">
         <v>0</v>
       </c>
       <c r="G35" s="5"/>
       <c r="I35" s="12" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="22" t="s">
-        <v>108</v>
+        <v>164</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="D36" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="E36" s="72" t="s">
-        <v>79</v>
+        <v>47</v>
+      </c>
+      <c r="E36" s="70" t="s">
+        <v>48</v>
       </c>
       <c r="F36" s="22">
         <v>0</v>
       </c>
       <c r="G36" s="5"/>
       <c r="I36" s="12" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="22" t="s">
-        <v>109</v>
+        <v>70</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D37" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E37" s="56" t="s">
-        <v>84</v>
-      </c>
-      <c r="F37" s="89">
+        <v>25</v>
+      </c>
+      <c r="E37" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="F37" s="87">
         <v>-9411.6</v>
       </c>
       <c r="G37" s="5"/>
       <c r="I37" s="12" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
       <c r="B38" s="22" t="s">
-        <v>110</v>
+        <v>71</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D38" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E38" s="56" t="s">
-        <v>84</v>
-      </c>
-      <c r="F38" s="89">
+        <v>25</v>
+      </c>
+      <c r="E38" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="F38" s="87">
         <v>-9411.6</v>
       </c>
       <c r="G38" s="5"/>
       <c r="I38" s="12" t="s">
-        <v>111</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
       <c r="B39" s="22" t="s">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D39" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E39" s="56" t="s">
-        <v>84</v>
-      </c>
-      <c r="F39" s="89">
+        <v>25</v>
+      </c>
+      <c r="E39" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="F39" s="87">
         <v>-9411.6</v>
       </c>
       <c r="G39" s="5"/>
       <c r="I39" s="12" t="s">
-        <v>113</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="B40" s="22" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D40" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E40" s="56" t="s">
-        <v>84</v>
-      </c>
-      <c r="F40" s="89">
+        <v>25</v>
+      </c>
+      <c r="E40" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="F40" s="87">
         <v>-9411.6</v>
       </c>
       <c r="G40" s="5"/>
       <c r="I40" s="12" t="s">
-        <v>113</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
       <c r="B41" s="22" t="s">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D41" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E41" s="56" t="s">
-        <v>92</v>
-      </c>
-      <c r="F41" s="89">
+        <v>25</v>
+      </c>
+      <c r="E41" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="F41" s="87">
         <v>-17221.2</v>
       </c>
       <c r="G41" s="5"/>
       <c r="I41" s="12" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
       <c r="B42" s="22" t="s">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D42" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E42" s="56" t="s">
-        <v>92</v>
-      </c>
-      <c r="F42" s="89">
+        <v>25</v>
+      </c>
+      <c r="E42" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="F42" s="87">
         <v>-17221.2</v>
       </c>
       <c r="G42" s="5"/>
       <c r="I42" s="12" t="s">
-        <v>111</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="22" t="s">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D43" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E43" s="56" t="s">
-        <v>92</v>
-      </c>
-      <c r="F43" s="89">
+        <v>25</v>
+      </c>
+      <c r="E43" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="F43" s="87">
         <v>-17221.2</v>
       </c>
       <c r="G43" s="5"/>
       <c r="I43" s="12" t="s">
-        <v>118</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
       <c r="B44" s="22" t="s">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D44" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E44" s="56" t="s">
-        <v>92</v>
-      </c>
-      <c r="F44" s="89">
+        <v>25</v>
+      </c>
+      <c r="E44" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="F44" s="87">
         <v>-17221.2</v>
       </c>
       <c r="G44" s="5"/>
       <c r="I44" s="12" t="s">
-        <v>118</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
       <c r="B45" s="22" t="s">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D45" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E45" s="56" t="s">
-        <v>84</v>
-      </c>
-      <c r="F45" s="89">
+        <v>25</v>
+      </c>
+      <c r="E45" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="F45" s="87">
         <v>-9411.6</v>
       </c>
       <c r="G45" s="5"/>
       <c r="I45" s="12" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
       <c r="B46" s="22" t="s">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D46" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E46" s="56" t="s">
-        <v>84</v>
-      </c>
-      <c r="F46" s="89">
+        <v>25</v>
+      </c>
+      <c r="E46" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="F46" s="87">
         <v>-9411.6</v>
       </c>
       <c r="G46" s="5"/>
       <c r="I46" s="12" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
       <c r="B47" s="22" t="s">
-        <v>122</v>
+        <v>83</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D47" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E47" s="56" t="s">
-        <v>84</v>
-      </c>
-      <c r="F47" s="89">
+        <v>25</v>
+      </c>
+      <c r="E47" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="F47" s="87">
         <v>-9411.6</v>
       </c>
       <c r="G47" s="5"/>
       <c r="I47" s="12" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4"/>
       <c r="B48" s="23" t="s">
-        <v>123</v>
+        <v>84</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D48" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="E48" s="57" t="s">
-        <v>84</v>
-      </c>
-      <c r="F48" s="90">
+        <v>25</v>
+      </c>
+      <c r="E48" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="F48" s="88">
         <v>-9411.6</v>
       </c>
       <c r="G48" s="4"/>
       <c r="H48" s="23"/>
       <c r="I48" s="13" t="s">
-        <v>124</v>
+        <v>85</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -3095,7 +3059,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3139,11 +3103,11 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="61" t="s">
-        <v>146</v>
+      <c r="A2" s="59" t="s">
+        <v>92</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>166</v>
+        <v>120</v>
       </c>
       <c r="C2" s="29" t="s">
         <v>9</v>
@@ -3159,14 +3123,14 @@
       </c>
       <c r="G2" s="29"/>
       <c r="H2" s="29"/>
-      <c r="I2" s="54" t="s">
-        <v>170</v>
+      <c r="I2" s="89" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="62"/>
+      <c r="A3" s="60"/>
       <c r="B3" s="42" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="C3" s="26" t="s">
         <v>9</v>
@@ -3182,10 +3146,10 @@
       </c>
       <c r="G3" s="26"/>
       <c r="H3" s="26"/>
-      <c r="I3" s="55"/>
+      <c r="I3" s="90"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="63"/>
+      <c r="A4" s="61"/>
       <c r="B4" s="40"/>
       <c r="C4" s="23"/>
       <c r="D4" s="23"/>
@@ -3200,8 +3164,8 @@
       <c r="I4" s="13"/>
     </row>
     <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="61" t="s">
-        <v>147</v>
+      <c r="A5" s="59" t="s">
+        <v>93</v>
       </c>
       <c r="B5" s="44" t="s">
         <v>12</v>
@@ -3225,7 +3189,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="64"/>
+      <c r="A6" s="62"/>
       <c r="B6" s="19"/>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
@@ -3240,11 +3204,11 @@
       <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="65" t="s">
-        <v>148</v>
+      <c r="A7" s="63" t="s">
+        <v>94</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>17</v>
+        <v>120</v>
       </c>
       <c r="C7" s="20" t="s">
         <v>13</v>
@@ -3261,13 +3225,13 @@
       <c r="G7" s="20"/>
       <c r="H7" s="20"/>
       <c r="I7" s="10" t="s">
-        <v>18</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="66"/>
+      <c r="A8" s="64"/>
       <c r="B8" s="46" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C8" s="47" t="s">
         <v>13</v>
@@ -3284,11 +3248,11 @@
       <c r="G8" s="47"/>
       <c r="H8" s="47"/>
       <c r="I8" s="49" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="67"/>
+      <c r="A9" s="65"/>
       <c r="B9" s="18"/>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
@@ -3303,11 +3267,11 @@
       <c r="I9" s="11"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="64" t="s">
-        <v>149</v>
+      <c r="A10" s="62" t="s">
+        <v>95</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>13</v>
@@ -3324,22 +3288,22 @@
       <c r="G10" s="22"/>
       <c r="H10" s="22"/>
       <c r="I10" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="67"/>
+      <c r="B11" s="53" t="s">
+        <v>123</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="22" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A11" s="69"/>
-      <c r="B11" s="53" t="s">
-        <v>168</v>
-      </c>
-      <c r="C11" s="22" t="s">
+      <c r="E11" s="22" t="s">
         <v>23</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>25</v>
       </c>
       <c r="F11" s="22">
         <v>0</v>
@@ -3347,11 +3311,11 @@
       <c r="G11" s="22"/>
       <c r="H11" s="22"/>
       <c r="I11" s="12" t="s">
-        <v>169</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="68"/>
+      <c r="A12" s="66"/>
       <c r="B12" s="18"/>
       <c r="C12" s="21"/>
       <c r="D12" s="21"/>
@@ -3380,8 +3344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B023060C-33ED-4ECB-B1F6-455EB64EB892}">
   <dimension ref="A1:I108"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3422,27 +3386,27 @@
       <c r="H1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="70" t="s">
+      <c r="I1" s="68" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
-        <v>151</v>
+      <c r="A2" s="62" t="s">
+        <v>97</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>159</v>
+        <v>120</v>
       </c>
       <c r="C2" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="78">
+      <c r="F2" s="76">
         <v>-23962.799999999999</v>
       </c>
       <c r="G2" s="22">
@@ -3452,48 +3416,48 @@
         <v>108</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" s="22" t="s">
-        <v>160</v>
+        <v>122</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="79">
+        <v>28</v>
+      </c>
+      <c r="F3" s="77">
         <v>-100.5</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>175</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F4" s="78"/>
+      <c r="F4" s="76"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="50"/>
       <c r="B5" s="25" t="s">
-        <v>161</v>
+        <v>126</v>
       </c>
       <c r="C5" s="25"/>
       <c r="D5" s="25"/>
       <c r="E5" s="52"/>
-      <c r="F5" s="80"/>
+      <c r="F5" s="78"/>
       <c r="G5" s="25"/>
       <c r="H5" s="25"/>
       <c r="I5" s="51"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="22" t="s">
-        <v>31</v>
+        <v>128</v>
       </c>
       <c r="C6" s="22" t="s">
         <v>13</v>
@@ -3504,56 +3468,56 @@
       <c r="E6" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="78">
+      <c r="F6" s="76">
         <v>0</v>
       </c>
-      <c r="I6" s="71" t="s">
-        <v>32</v>
+      <c r="I6" s="69" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B7" s="22" t="s">
-        <v>158</v>
+        <v>129</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="74" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="81">
+        <v>25</v>
+      </c>
+      <c r="E7" s="72" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="79">
         <v>1</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B8" s="22" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E8" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="81">
+        <v>32</v>
+      </c>
+      <c r="F8" s="79">
         <v>60</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="22" t="s">
-        <v>157</v>
+        <v>131</v>
       </c>
       <c r="C9" s="22" t="s">
         <v>13</v>
@@ -3564,56 +3528,56 @@
       <c r="E9" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="78">
+      <c r="F9" s="76">
         <v>0</v>
       </c>
-      <c r="I9" s="71" t="s">
-        <v>32</v>
+      <c r="I9" s="69" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B10" s="22" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="74" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="81">
+        <v>25</v>
+      </c>
+      <c r="E10" s="72" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="79">
         <v>1</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B11" s="22" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E11" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="81">
+        <v>34</v>
+      </c>
+      <c r="F11" s="79">
         <v>-100</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="22" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="C12" s="22" t="s">
         <v>13</v>
@@ -3624,394 +3588,394 @@
       <c r="E12" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="78">
+      <c r="F12" s="76">
         <v>0</v>
       </c>
-      <c r="I12" s="71" t="s">
-        <v>32</v>
+      <c r="I12" s="69" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B13" s="22" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="74" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="81">
+        <v>25</v>
+      </c>
+      <c r="E13" s="72" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="79">
         <v>1</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B14" s="22" t="s">
-        <v>38</v>
+        <v>136</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="75" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" s="81">
+        <v>25</v>
+      </c>
+      <c r="E14" s="73" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="79">
         <v>0</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B15" s="22" t="s">
-        <v>41</v>
+        <v>137</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="76" t="s">
-        <v>39</v>
-      </c>
-      <c r="F15" s="81">
+        <v>25</v>
+      </c>
+      <c r="E15" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="79">
         <v>0</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B16" s="22" t="s">
-        <v>42</v>
+        <v>138</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="76" t="s">
-        <v>39</v>
-      </c>
-      <c r="F16" s="81">
+        <v>25</v>
+      </c>
+      <c r="E16" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="79">
         <v>0</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B17" s="22" t="s">
-        <v>43</v>
+        <v>140</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="76" t="s">
-        <v>39</v>
-      </c>
-      <c r="F17" s="81">
+        <v>25</v>
+      </c>
+      <c r="E17" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="79">
         <v>0</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B18" s="22" t="s">
-        <v>44</v>
+        <v>141</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="76" t="s">
-        <v>39</v>
-      </c>
-      <c r="F18" s="81">
+        <v>25</v>
+      </c>
+      <c r="E18" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="79">
         <v>0</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B19" s="22" t="s">
-        <v>45</v>
+        <v>142</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="76" t="s">
-        <v>39</v>
-      </c>
-      <c r="F19" s="81">
+        <v>25</v>
+      </c>
+      <c r="E19" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" s="79">
         <v>0</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B20" s="22" t="s">
-        <v>46</v>
+        <v>143</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" s="76" t="s">
-        <v>39</v>
-      </c>
-      <c r="F20" s="81">
+        <v>25</v>
+      </c>
+      <c r="E20" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" s="79">
         <v>0</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B21" s="22" t="s">
-        <v>47</v>
+        <v>144</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21" s="76" t="s">
-        <v>39</v>
-      </c>
-      <c r="F21" s="81">
+        <v>25</v>
+      </c>
+      <c r="E21" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" s="79">
         <v>0</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B22" s="22" t="s">
-        <v>48</v>
+        <v>145</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22" s="76" t="s">
-        <v>39</v>
-      </c>
-      <c r="F22" s="81">
+        <v>25</v>
+      </c>
+      <c r="E22" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" s="79">
         <v>0</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B23" s="22" t="s">
-        <v>49</v>
+        <v>146</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23" s="76" t="s">
-        <v>39</v>
-      </c>
-      <c r="F23" s="81">
+        <v>25</v>
+      </c>
+      <c r="E23" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23" s="79">
         <v>0</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B24" s="22" t="s">
-        <v>50</v>
+        <v>147</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E24" s="76" t="s">
-        <v>39</v>
-      </c>
-      <c r="F24" s="81">
+        <v>25</v>
+      </c>
+      <c r="E24" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="F24" s="79">
         <v>0</v>
       </c>
       <c r="I24" s="12" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B25" s="22" t="s">
-        <v>51</v>
+        <v>148</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25" s="76" t="s">
-        <v>39</v>
-      </c>
-      <c r="F25" s="81">
+        <v>25</v>
+      </c>
+      <c r="E25" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="F25" s="79">
         <v>0</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B26" s="22" t="s">
-        <v>52</v>
+        <v>149</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E26" s="76" t="s">
-        <v>39</v>
-      </c>
-      <c r="F26" s="81">
+        <v>25</v>
+      </c>
+      <c r="E26" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="F26" s="79">
         <v>0</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B27" s="22" t="s">
-        <v>53</v>
+        <v>150</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E27" s="76" t="s">
-        <v>39</v>
-      </c>
-      <c r="F27" s="81">
+        <v>25</v>
+      </c>
+      <c r="E27" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="F27" s="79">
         <v>0</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B28" s="22" t="s">
-        <v>54</v>
+        <v>151</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E28" s="76" t="s">
-        <v>39</v>
-      </c>
-      <c r="F28" s="81">
+        <v>25</v>
+      </c>
+      <c r="E28" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="F28" s="79">
         <v>0</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B29" s="22" t="s">
-        <v>55</v>
+        <v>152</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E29" s="76" t="s">
-        <v>39</v>
-      </c>
-      <c r="F29" s="81">
+        <v>25</v>
+      </c>
+      <c r="E29" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="F29" s="79">
         <v>0</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B30" s="22" t="s">
-        <v>56</v>
+        <v>153</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E30" s="76" t="s">
-        <v>39</v>
-      </c>
-      <c r="F30" s="81">
+        <v>25</v>
+      </c>
+      <c r="E30" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="F30" s="79">
         <v>0</v>
       </c>
       <c r="I30" s="12" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="15"/>
       <c r="B31" s="23" t="s">
-        <v>57</v>
+        <v>154</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="E31" s="77" t="s">
-        <v>39</v>
-      </c>
-      <c r="F31" s="82">
+        <v>25</v>
+      </c>
+      <c r="E31" s="75" t="s">
+        <v>35</v>
+      </c>
+      <c r="F31" s="80">
         <v>0</v>
       </c>
       <c r="G31" s="23"/>
       <c r="H31" s="23"/>
       <c r="I31" s="13" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -4871,7 +4835,7 @@
   <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4918,19 +4882,19 @@
     </row>
     <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
-        <v>162</v>
+        <v>98</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="E2" s="32" t="s">
-        <v>126</v>
+        <v>86</v>
       </c>
       <c r="F2" s="22">
         <v>-54</v>
@@ -4938,13 +4902,13 @@
       <c r="G2" s="22"/>
       <c r="H2" s="22"/>
       <c r="I2" s="33" t="s">
-        <v>127</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="35"/>
       <c r="B3" s="35" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C3" s="22" t="s">
         <v>13</v>
@@ -4961,13 +4925,13 @@
       <c r="G3" s="22"/>
       <c r="H3" s="22"/>
       <c r="I3" s="33" t="s">
-        <v>129</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="35"/>
       <c r="B4" s="35" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C4" s="22" t="s">
         <v>13</v>
@@ -4984,13 +4948,13 @@
       <c r="G4" s="22"/>
       <c r="H4" s="22"/>
       <c r="I4" s="33" t="s">
-        <v>131</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="39"/>
       <c r="B5" s="39" t="s">
-        <v>132</v>
+        <v>156</v>
       </c>
       <c r="C5" s="26" t="s">
         <v>13</v>
@@ -5007,7 +4971,7 @@
       <c r="G5" s="26"/>
       <c r="H5" s="26"/>
       <c r="I5" s="27" t="s">
-        <v>131</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5027,10 +4991,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="36" t="s">
-        <v>163</v>
+        <v>99</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="C7" s="22" t="s">
         <v>13</v>
@@ -5047,13 +5011,13 @@
       <c r="G7" s="22"/>
       <c r="H7" s="22"/>
       <c r="I7" s="33" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="35"/>
       <c r="B8" s="35" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="C8" s="22" t="s">
         <v>13</v>
@@ -5070,13 +5034,13 @@
       <c r="G8" s="22"/>
       <c r="H8" s="22"/>
       <c r="I8" s="33" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="35"/>
       <c r="B9" s="35" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C9" s="22" t="s">
         <v>13</v>
@@ -5093,13 +5057,13 @@
       <c r="G9" s="22"/>
       <c r="H9" s="22"/>
       <c r="I9" s="33" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="39"/>
       <c r="B10" s="39" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="C10" s="26" t="s">
         <v>13</v>
@@ -5116,7 +5080,7 @@
       <c r="G10" s="26"/>
       <c r="H10" s="26"/>
       <c r="I10" s="27" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5136,19 +5100,19 @@
     </row>
     <row r="12" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="36" t="s">
-        <v>164</v>
+        <v>100</v>
       </c>
       <c r="B12" s="35" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>139</v>
+        <v>90</v>
       </c>
       <c r="F12" s="22">
         <v>24601</v>
@@ -5156,22 +5120,22 @@
       <c r="G12" s="22"/>
       <c r="H12" s="22"/>
       <c r="I12" s="33" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="35"/>
       <c r="B13" s="35" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>139</v>
+        <v>90</v>
       </c>
       <c r="F13" s="22">
         <v>-23041</v>
@@ -5179,13 +5143,13 @@
       <c r="G13" s="22"/>
       <c r="H13" s="22"/>
       <c r="I13" s="33" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="35"/>
       <c r="B14" s="35" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="C14" s="22" t="s">
         <v>13</v>
@@ -5202,22 +5166,22 @@
       <c r="G14" s="22"/>
       <c r="H14" s="22"/>
       <c r="I14" s="33" t="s">
-        <v>143</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="35"/>
       <c r="B15" s="35" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="C15" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="22" t="s">
         <v>23</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>25</v>
       </c>
       <c r="F15" s="22">
         <v>0</v>
@@ -5225,7 +5189,7 @@
       <c r="G15" s="22"/>
       <c r="H15" s="22"/>
       <c r="I15" s="33" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5255,6 +5219,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="dokument" ma:contentTypeID="0x010100FD0D9C5B0F30B14A84440CF280DA326C" ma:contentTypeVersion="9" ma:contentTypeDescription="Skapa ett nytt dokument." ma:contentTypeScope="" ma:versionID="f052d506758dd47f86707b6d0c03e9f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="21ac1ee4-b8a7-4c5b-b2ac-a03da798587c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="04749f7ec2efcf2819b7410308bd982e" ns2:_="">
     <xsd:import namespace="21ac1ee4-b8a7-4c5b-b2ac-a03da798587c"/>
@@ -5432,35 +5411,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AEB9EB77-852A-481F-8A25-3AFD79A25097}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C74A1AE-CBE8-48BE-92ED-62B1EAD177CE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="21ac1ee4-b8a7-4c5b-b2ac-a03da798587c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5482,9 +5436,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C74A1AE-CBE8-48BE-92ED-62B1EAD177CE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AEB9EB77-852A-481F-8A25-3AFD79A25097}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="21ac1ee4-b8a7-4c5b-b2ac-a03da798587c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>